--- a/data/trans_dic/P37A$medicoedad-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoedad-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05438622993390889</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1443605787122234</v>
+        <v>0.1443605787122235</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07451956671839412</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03350716732473637</v>
+        <v>0.03552902403399457</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05241717331371556</v>
+        <v>0.05215349890341482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03300500391997147</v>
+        <v>0.03382964618564317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.112888991100476</v>
+        <v>0.1154343871939902</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04287382329682157</v>
+        <v>0.04512406073030784</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0509652045658863</v>
+        <v>0.04829875595894532</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03080769773059876</v>
+        <v>0.03007361103138518</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1499232166773578</v>
+        <v>0.150619586746624</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04492332934643425</v>
+        <v>0.04532339285456669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05759899867649813</v>
+        <v>0.05683750076655338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0383094243212164</v>
+        <v>0.03877994060989915</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1413114033685439</v>
+        <v>0.1407392503493005</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08627242137636912</v>
+        <v>0.08779480077641723</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1242400082611994</v>
+        <v>0.1208925630106833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08328303564518472</v>
+        <v>0.083480944188027</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1809283224677609</v>
+        <v>0.1819566013813624</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1109325456309486</v>
+        <v>0.1128144413831328</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1133621870248066</v>
+        <v>0.1133094355421861</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08705030636955019</v>
+        <v>0.08754303540027157</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2103274269218023</v>
+        <v>0.2141722817546415</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08763200982557298</v>
+        <v>0.08579585604454662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.105160848554876</v>
+        <v>0.1028246978041575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07525016741093636</v>
+        <v>0.07513209102786467</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1863847366465196</v>
+        <v>0.1865695876944303</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01572172564452478</v>
+        <v>0.01410088922995521</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06038623895756334</v>
+        <v>0.05920412745193225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05653336247273297</v>
+        <v>0.05657316587971058</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07284471294952059</v>
+        <v>0.07473546244215221</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04365471392469785</v>
+        <v>0.04574906390299205</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07672246642038022</v>
+        <v>0.07675384994169113</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04440732643967756</v>
+        <v>0.04658117339476292</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1299100556234254</v>
+        <v>0.1300162695414761</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03322352325027001</v>
+        <v>0.03311693781256025</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07229868588300094</v>
+        <v>0.07424347552970945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05681623281971358</v>
+        <v>0.05694881675428776</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1099666214538896</v>
+        <v>0.1077017941100451</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04392415709522868</v>
+        <v>0.04348851933966205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1106804473085603</v>
+        <v>0.1117109963939659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1053638022841921</v>
+        <v>0.1031450106508305</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1244830986437588</v>
+        <v>0.1279856456288686</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09006490502311883</v>
+        <v>0.09064960498033085</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1321634478977643</v>
+        <v>0.1311225287425502</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09618099244456678</v>
+        <v>0.09588561576282738</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1803475372559071</v>
+        <v>0.1783162154350375</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06071801546258605</v>
+        <v>0.05830702489471132</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1107150906764839</v>
+        <v>0.1114908800926979</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09102637252821456</v>
+        <v>0.09311230039416155</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1459244481958918</v>
+        <v>0.1437291665412647</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04694907895377257</v>
+        <v>0.04997784543611473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08155839103933787</v>
+        <v>0.08024363633822326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09422710603939385</v>
+        <v>0.09865975507866752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1424335627492355</v>
+        <v>0.1400052600509998</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1140011892565459</v>
+        <v>0.1179542437790504</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1009968489735168</v>
+        <v>0.09984876192756896</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1013597498533235</v>
+        <v>0.1001693360180722</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.137786212618169</v>
+        <v>0.1365867861445486</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09048026189858696</v>
+        <v>0.09099207730390417</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09891937839960244</v>
+        <v>0.09711983370590931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1073252042736387</v>
+        <v>0.1069726372130153</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.148247526671242</v>
+        <v>0.147881915262107</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1025135794213241</v>
+        <v>0.1086407283846841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1569866610076169</v>
+        <v>0.1551064307014544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1659611061147073</v>
+        <v>0.1706752564190786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.208375734679219</v>
+        <v>0.2118352250514827</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1926295098141002</v>
+        <v>0.1985172593807117</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1758226658175767</v>
+        <v>0.1740531682966454</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.179533071232318</v>
+        <v>0.1807826227788962</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1922867810859116</v>
+        <v>0.1935725141339243</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1401859870538895</v>
+        <v>0.1384217006030432</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1544498048416937</v>
+        <v>0.1482887139420118</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1626509735717319</v>
+        <v>0.1600873967486025</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1925662773522331</v>
+        <v>0.1930775663384999</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07345963075382855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1399293167709006</v>
+        <v>0.1399293167709005</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09529326114064164</v>
@@ -1105,7 +1105,7 @@
         <v>0.08924363435714903</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1413792307501386</v>
+        <v>0.1413792307501385</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04009007188928963</v>
+        <v>0.04077564438699568</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06037929195745451</v>
+        <v>0.06218416298307966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0490383091032042</v>
+        <v>0.05073899989963352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1078934395818069</v>
+        <v>0.1097445439218695</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06921703706487899</v>
+        <v>0.06884511174507274</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0836943807563105</v>
+        <v>0.08849155387660028</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06926864338178583</v>
+        <v>0.07547105589759223</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1210218270020006</v>
+        <v>0.1205400841757487</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06146803228763992</v>
+        <v>0.06142988063085737</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08189462415380479</v>
+        <v>0.08243872996355954</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06950672989728449</v>
+        <v>0.06883058000172554</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1185979350077253</v>
+        <v>0.1232650594715778</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08662835367973</v>
+        <v>0.09075707894879027</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1256027655528751</v>
+        <v>0.1245065478585819</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1028345482373697</v>
+        <v>0.1024159145553626</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1738740969064567</v>
+        <v>0.1767885755043073</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1293603790052987</v>
+        <v>0.1321195002439826</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1529137697932886</v>
+        <v>0.1548818348439621</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1402170364619108</v>
+        <v>0.1434267705069468</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1682188264866205</v>
+        <v>0.168916036484973</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09944576446770995</v>
+        <v>0.09868198556261097</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.127757986968085</v>
+        <v>0.1271271053393228</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1128058656121551</v>
+        <v>0.111133863370755</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.160020857668133</v>
+        <v>0.1640510552223038</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.05750091520009657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08619085312324389</v>
+        <v>0.08619085312324386</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08669687325048785</v>
@@ -1241,7 +1241,7 @@
         <v>0.07471958328034056</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1243293606875353</v>
+        <v>0.1243293606875354</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01691228650264981</v>
+        <v>0.01700700992196665</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04724134700970774</v>
+        <v>0.04621141452695635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02987862172376599</v>
+        <v>0.03202132796757239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06376098844152993</v>
+        <v>0.06180239462555462</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05078903177937207</v>
+        <v>0.05255969213412408</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06156865496400853</v>
+        <v>0.06162819917928374</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05300229701413634</v>
+        <v>0.05621266244366365</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.129192056003588</v>
+        <v>0.1290120599334622</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04144753468985816</v>
+        <v>0.04068050108439235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06343965889860433</v>
+        <v>0.06307606771763172</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0521530593657963</v>
+        <v>0.05293378666945824</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1053689502453716</v>
+        <v>0.1044720556403653</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06504913046500881</v>
+        <v>0.06429029408157685</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1337427687994372</v>
+        <v>0.1286197404254091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09443092620056048</v>
+        <v>0.090943065631621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1217265147729079</v>
+        <v>0.1185457640381967</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.135846985885754</v>
+        <v>0.135373161737886</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1512794375725136</v>
+        <v>0.146532114730189</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.144806149553136</v>
+        <v>0.1419856011944733</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1904298468459854</v>
+        <v>0.1922001755649355</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08803843321268588</v>
+        <v>0.08753645357832678</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1205111816056966</v>
+        <v>0.1196047648409293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1035310452955833</v>
+        <v>0.1038046740622704</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.146573216365016</v>
+        <v>0.1477533818267834</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1524455732672806</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2545979252171415</v>
+        <v>0.2545979252171414</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1002869040082187</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04839790206272217</v>
+        <v>0.05187637790537378</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08286098016435058</v>
+        <v>0.08290582081941338</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09859773401579711</v>
+        <v>0.1009735625459247</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1631576083895765</v>
+        <v>0.1657677522864725</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08975367085183823</v>
+        <v>0.08843194218410229</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08517013597509454</v>
+        <v>0.08434845368487841</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1102091986965518</v>
+        <v>0.110632603679326</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2189911320662261</v>
+        <v>0.2215291430001523</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07429825198892694</v>
+        <v>0.07553282268116497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09060226273707664</v>
+        <v>0.09292633149096699</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1158471619815852</v>
+        <v>0.1165615811786454</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2009361588586116</v>
+        <v>0.202011161757248</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1113020019401158</v>
+        <v>0.1142881603469323</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1607441610612378</v>
+        <v>0.1585594704677109</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1782368483585109</v>
+        <v>0.1815444899816573</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.234182814409575</v>
+        <v>0.2387706484572736</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1697264365878244</v>
+        <v>0.171109572650891</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1653275549392879</v>
+        <v>0.1617803559459967</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.201208970911971</v>
+        <v>0.2039169247392054</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2912081485431606</v>
+        <v>0.2913410453871688</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1259599624187919</v>
+        <v>0.1256535793367363</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1472123534020544</v>
+        <v>0.1487510993747685</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1766070914852412</v>
+        <v>0.1745621813134141</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.255461776839922</v>
+        <v>0.2559265514306251</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.1281663457692858</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1220358191739189</v>
+        <v>0.122035819173919</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06097119354720703</v>
+        <v>0.06046039323678499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0637923254763287</v>
+        <v>0.06515816276360714</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09079524844385486</v>
+        <v>0.08846183043297429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0966828868315753</v>
+        <v>0.09501382826582973</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08564517786101856</v>
+        <v>0.08364205068758965</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06298496650411699</v>
+        <v>0.06403195900809236</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1157313731831699</v>
+        <v>0.1161750358238003</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1057201242306361</v>
+        <v>0.1071015720453657</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07769096949345615</v>
+        <v>0.07820301639719221</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06940458699027623</v>
+        <v>0.06881014469406482</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.10784195872217</v>
+        <v>0.1085691572545486</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1064186704679969</v>
+        <v>0.1072671483394424</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.103333334798418</v>
+        <v>0.1019645143316396</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1124535274083041</v>
+        <v>0.113275681113649</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1424142614214784</v>
+        <v>0.1403181924510936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.141021160486478</v>
+        <v>0.1404548812398427</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.136300786028587</v>
+        <v>0.1328128870205104</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1071584611376586</v>
+        <v>0.1100905994871376</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1722290490197299</v>
+        <v>0.172148642937752</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.148805559222804</v>
+        <v>0.148996087945549</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1106722793330196</v>
+        <v>0.1122276317795383</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1014182900957114</v>
+        <v>0.1015090074914557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1463549023506632</v>
+        <v>0.1495752092128612</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1378685483439586</v>
+        <v>0.1377972344955806</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05931314503293935</v>
+        <v>0.06062787263331014</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07314545221986085</v>
+        <v>0.07345301614819359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06502433730208021</v>
+        <v>0.06521553745520677</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1072769278477243</v>
+        <v>0.107825053062446</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06780819695513036</v>
+        <v>0.0690991103184123</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08927477483446764</v>
+        <v>0.09096159189230101</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07762219734809878</v>
+        <v>0.0785784963724509</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1500089368507453</v>
+        <v>0.1516699570097659</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07023154244103115</v>
+        <v>0.06978053765441587</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08637207321211207</v>
+        <v>0.08650436703697578</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07714969161859181</v>
+        <v>0.07723846760108809</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1343683860351121</v>
+        <v>0.1354196169186245</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09850008583910821</v>
+        <v>0.1007567343194684</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1154708885857745</v>
+        <v>0.1168439292979395</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1043397067297344</v>
+        <v>0.1056370662480361</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1486329227357518</v>
+        <v>0.1472588528885971</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1126679889198293</v>
+        <v>0.1102725893816463</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1335735938263692</v>
+        <v>0.1341155334205728</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.125920060252986</v>
+        <v>0.1269216404568503</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1937261290063467</v>
+        <v>0.1952214680941237</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09892099304271955</v>
+        <v>0.09824123265516613</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.119838800410878</v>
+        <v>0.1168867527710597</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1086021071578349</v>
+        <v>0.1089287291270168</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1655598623009209</v>
+        <v>0.1641978842543283</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.09939869202452667</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1466428763272692</v>
+        <v>0.1466428763272691</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05588560710907647</v>
+        <v>0.05522563835083841</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08157477656124505</v>
+        <v>0.08148469719695309</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08251764776099688</v>
+        <v>0.08146585207475021</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1218333246614174</v>
+        <v>0.1219206995011497</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.08803966563814594</v>
+        <v>0.08710788386777465</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09406107068018743</v>
+        <v>0.0927273353634392</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09555607283351561</v>
+        <v>0.09557347775142078</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1518771270525234</v>
+        <v>0.1527594749014992</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07361392191425796</v>
+        <v>0.07460706973572293</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09056488623935383</v>
+        <v>0.09040590729409177</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.09199583501170452</v>
+        <v>0.09223653387040122</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1396183588121367</v>
+        <v>0.1394652620701939</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07208518335037416</v>
+        <v>0.07166536996176889</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1030108647035812</v>
+        <v>0.1029604769066043</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1014745033663597</v>
+        <v>0.101313119906393</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1426525193764617</v>
+        <v>0.1423055821761036</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1077504567253004</v>
+        <v>0.1082211288988326</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1136043484719666</v>
+        <v>0.1143481543220087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1184223030943533</v>
+        <v>0.11903135490471</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1697305658404291</v>
+        <v>0.1709446230161244</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08710515162361278</v>
+        <v>0.08757061138066542</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1048251879597027</v>
+        <v>0.1050950438484197</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.107465981377888</v>
+        <v>0.1076333126606079</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1533954659968922</v>
+        <v>0.1538854691637485</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9148</v>
+        <v>9700</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15449</v>
+        <v>15372</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9696</v>
+        <v>9938</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35994</v>
+        <v>36806</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11183</v>
+        <v>11770</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14640</v>
+        <v>13874</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8894</v>
+        <v>8682</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47385</v>
+        <v>47605</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23982</v>
+        <v>24196</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>33522</v>
+        <v>33078</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22314</v>
+        <v>22588</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>89719</v>
+        <v>89356</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23553</v>
+        <v>23969</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36618</v>
+        <v>35632</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24465</v>
+        <v>24523</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57688</v>
+        <v>58016</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28935</v>
+        <v>29426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32563</v>
+        <v>32548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25132</v>
+        <v>25274</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>66476</v>
+        <v>67692</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46782</v>
+        <v>45802</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>61202</v>
+        <v>59842</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>43831</v>
+        <v>43762</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>118337</v>
+        <v>118454</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7752</v>
+        <v>6953</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30527</v>
+        <v>29929</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28412</v>
+        <v>28432</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38655</v>
+        <v>39658</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22000</v>
+        <v>23055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>40185</v>
+        <v>40201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23229</v>
+        <v>24366</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>70995</v>
+        <v>71053</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>33125</v>
+        <v>33018</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>74416</v>
+        <v>76418</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>58274</v>
+        <v>58410</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>118450</v>
+        <v>116010</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21658</v>
+        <v>21443</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55952</v>
+        <v>56473</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52953</v>
+        <v>51838</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66057</v>
+        <v>67915</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45388</v>
+        <v>45683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69223</v>
+        <v>68677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50311</v>
+        <v>50156</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>98559</v>
+        <v>97449</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>60537</v>
+        <v>58134</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>113958</v>
+        <v>114757</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93362</v>
+        <v>95501</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>157181</v>
+        <v>154817</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14970</v>
+        <v>15935</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26429</v>
+        <v>26003</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30017</v>
+        <v>31430</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>45008</v>
+        <v>44241</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38237</v>
+        <v>39563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34442</v>
+        <v>34050</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34088</v>
+        <v>33688</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49104</v>
+        <v>48677</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>59197</v>
+        <v>59532</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>65788</v>
+        <v>64591</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>70284</v>
+        <v>70054</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>99678</v>
+        <v>99432</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32686</v>
+        <v>34640</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50871</v>
+        <v>50262</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52869</v>
+        <v>54371</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>65845</v>
+        <v>66938</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>64610</v>
+        <v>66585</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>59959</v>
+        <v>59356</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60379</v>
+        <v>60799</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>68527</v>
+        <v>68986</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>91718</v>
+        <v>90564</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>102719</v>
+        <v>98622</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>106516</v>
+        <v>104837</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>129477</v>
+        <v>129821</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14379</v>
+        <v>14625</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22581</v>
+        <v>23256</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18142</v>
+        <v>18772</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>40260</v>
+        <v>40951</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25711</v>
+        <v>25573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32553</v>
+        <v>34419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26827</v>
+        <v>29229</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>51066</v>
+        <v>50863</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44879</v>
+        <v>44852</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>62480</v>
+        <v>62895</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>52634</v>
+        <v>52122</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>94298</v>
+        <v>98009</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31071</v>
+        <v>32552</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46973</v>
+        <v>46563</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38045</v>
+        <v>37890</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64880</v>
+        <v>65968</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48052</v>
+        <v>49077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>59476</v>
+        <v>60241</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54304</v>
+        <v>55547</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>70982</v>
+        <v>71276</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72608</v>
+        <v>72050</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>97471</v>
+        <v>96989</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>85422</v>
+        <v>84156</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>127234</v>
+        <v>130438</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3438</v>
+        <v>3458</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10044</v>
+        <v>9825</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6311</v>
+        <v>6764</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13113</v>
+        <v>12711</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10547</v>
+        <v>10915</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13520</v>
+        <v>13533</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11586</v>
+        <v>12287</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29574</v>
+        <v>29533</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17034</v>
+        <v>16719</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>27419</v>
+        <v>27262</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>22416</v>
+        <v>22751</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>45791</v>
+        <v>45402</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13225</v>
+        <v>13071</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28436</v>
+        <v>27347</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19946</v>
+        <v>19209</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25035</v>
+        <v>24381</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28211</v>
+        <v>28113</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33220</v>
+        <v>32177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>31653</v>
+        <v>31036</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43593</v>
+        <v>43998</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36182</v>
+        <v>35975</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>52086</v>
+        <v>51694</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>44498</v>
+        <v>44616</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>63698</v>
+        <v>64211</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13107</v>
+        <v>14049</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22702</v>
+        <v>22715</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>25943</v>
+        <v>26568</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>44168</v>
+        <v>44874</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24964</v>
+        <v>24597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>23850</v>
+        <v>23620</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>30100</v>
+        <v>30215</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>57759</v>
+        <v>58428</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>40786</v>
+        <v>41464</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>50195</v>
+        <v>51482</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>62122</v>
+        <v>62505</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>107392</v>
+        <v>107966</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30142</v>
+        <v>30950</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44041</v>
+        <v>43442</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>46898</v>
+        <v>47769</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>63395</v>
+        <v>64637</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>47208</v>
+        <v>47593</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>46297</v>
+        <v>45304</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>54953</v>
+        <v>55693</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>76806</v>
+        <v>76841</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>69146</v>
+        <v>68978</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>81557</v>
+        <v>82410</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>94703</v>
+        <v>93607</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>136533</v>
+        <v>136782</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>37499</v>
+        <v>37185</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>42281</v>
+        <v>43186</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>59612</v>
+        <v>58080</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69581</v>
+        <v>68380</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>54660</v>
+        <v>53382</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>43702</v>
+        <v>44429</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>80004</v>
+        <v>80311</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>81622</v>
+        <v>82689</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>97366</v>
+        <v>98008</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>94157</v>
+        <v>93351</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>145355</v>
+        <v>146335</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>158749</v>
+        <v>160015</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>63553</v>
+        <v>62711</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>74533</v>
+        <v>75078</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>93503</v>
+        <v>92127</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>101491</v>
+        <v>101084</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>86990</v>
+        <v>84764</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>74352</v>
+        <v>76387</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>119061</v>
+        <v>119005</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>114886</v>
+        <v>115033</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>138700</v>
+        <v>140649</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>137588</v>
+        <v>137711</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>197265</v>
+        <v>201605</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>205665</v>
+        <v>205558</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>44117</v>
+        <v>45095</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>56987</v>
+        <v>57227</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>50627</v>
+        <v>50776</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>85615</v>
+        <v>86052</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>53128</v>
+        <v>54140</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>73549</v>
+        <v>74939</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>64129</v>
+        <v>64919</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>124707</v>
+        <v>126088</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>107265</v>
+        <v>106576</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>138450</v>
+        <v>138662</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>123806</v>
+        <v>123948</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>218940</v>
+        <v>220653</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>73264</v>
+        <v>74942</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>89963</v>
+        <v>91033</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>81237</v>
+        <v>82247</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>118620</v>
+        <v>117523</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>88277</v>
+        <v>86400</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>110045</v>
+        <v>110491</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>104031</v>
+        <v>104858</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>161051</v>
+        <v>162294</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>151083</v>
+        <v>150044</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>192096</v>
+        <v>187364</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>174279</v>
+        <v>174803</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>269764</v>
+        <v>267545</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>183112</v>
+        <v>180949</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>279539</v>
+        <v>279230</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>280094</v>
+        <v>276524</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>430408</v>
+        <v>430717</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>297503</v>
+        <v>294355</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>334698</v>
+        <v>329953</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>338703</v>
+        <v>338764</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>567558</v>
+        <v>570855</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>489955</v>
+        <v>496565</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>632604</v>
+        <v>631493</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>638349</v>
+        <v>640019</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1014986</v>
+        <v>1013873</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>236190</v>
+        <v>234815</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>352995</v>
+        <v>352823</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>344440</v>
+        <v>343892</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>503957</v>
+        <v>502732</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>364110</v>
+        <v>365701</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>404239</v>
+        <v>406886</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>419753</v>
+        <v>421912</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>634275</v>
+        <v>638812</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>579749</v>
+        <v>582847</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>732213</v>
+        <v>734098</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>745695</v>
+        <v>746856</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1115141</v>
+        <v>1118704</v>
       </c>
     </row>
     <row r="40">
